--- a/public/files/module_import_example_et.xlsx
+++ b/public/files/module_import_example_et.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t xml:space="preserve">Moduļa nosaukums</t>
   </si>
@@ -128,18 +128,6 @@
   </si>
   <si>
     <t xml:space="preserve">Elektrisko tīklu tehniķa prakse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elektrotīklu izbūve un darbu organizēšana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elektromontāžas tehniķa prakse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rūpniecisko elektroiekārtu uzturēšana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rūpnīcu elektroiekārtu tehniķa prakse</t>
   </si>
 </sst>
 </file>
@@ -212,12 +200,12 @@
       <b val="true"/>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="4">
@@ -281,7 +269,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -322,12 +310,20 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -414,39 +410,53 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>415800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>68400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>720360</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>554040</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="TextShape 1"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11607480" y="2346480"/>
-          <a:ext cx="3085200" cy="1665000"/>
+          <a:off x="12724920" y="1557720"/>
+          <a:ext cx="3084840" cy="1179720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="dddddd"/>
+        </a:solidFill>
         <a:ln w="144000">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="1" lang="lv-LV" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -458,55 +468,73 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="lv-LV" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="lv-LV" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>* Pirmā rinda rezervēta kolonas </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="lv-LV" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>nosaukumiem;</a:t>
+            <a:t>* Pirmā rinda rezervēta kolonas nosaukumiem;</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="lv-LV" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="lv-LV" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>* Teorija vienmēr iet pirms </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="lv-LV" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>prakses;</a:t>
+            <a:t>* Teorija vienmēr iet pirms prakses;</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="lv-LV" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="lv-LV" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="lv-LV" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="lv-LV" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
@@ -526,7 +554,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="A1:I1"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="22:22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -585,8 +613,7 @@
       <c r="H2" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="I2" s="8" t="n">
-        <f aca="false">G2-H2</f>
+      <c r="I2" s="10" t="n">
         <v>44</v>
       </c>
     </row>
@@ -610,8 +637,7 @@
       <c r="H3" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="I3" s="8" t="n">
-        <f aca="false">G3-H3</f>
+      <c r="I3" s="10" t="n">
         <v>78</v>
       </c>
     </row>
@@ -635,8 +661,7 @@
       <c r="H4" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="I4" s="8" t="n">
-        <f aca="false">G4-H4</f>
+      <c r="I4" s="10" t="n">
         <v>78</v>
       </c>
     </row>
@@ -662,8 +687,7 @@
       <c r="H5" s="9" t="n">
         <v>120</v>
       </c>
-      <c r="I5" s="8" t="n">
-        <f aca="false">G5-H5</f>
+      <c r="I5" s="10" t="n">
         <v>300</v>
       </c>
     </row>
@@ -687,8 +711,7 @@
       <c r="H6" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="I6" s="8" t="n">
-        <f aca="false">G6-H6</f>
+      <c r="I6" s="10" t="n">
         <v>64</v>
       </c>
     </row>
@@ -712,8 +735,7 @@
       <c r="H7" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="I7" s="8" t="n">
-        <f aca="false">G7-H7</f>
+      <c r="I7" s="10" t="n">
         <v>82</v>
       </c>
     </row>
@@ -737,8 +759,7 @@
       <c r="H8" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="I8" s="8" t="n">
-        <f aca="false">G8-H8</f>
+      <c r="I8" s="10" t="n">
         <v>162</v>
       </c>
     </row>
@@ -764,8 +785,7 @@
       <c r="H9" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="I9" s="8" t="n">
-        <f aca="false">G9-H9</f>
+      <c r="I9" s="10" t="n">
         <v>72</v>
       </c>
     </row>
@@ -789,8 +809,7 @@
       <c r="H10" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="I10" s="8" t="n">
-        <f aca="false">G10-H10</f>
+      <c r="I10" s="10" t="n">
         <v>64</v>
       </c>
     </row>
@@ -814,8 +833,7 @@
       <c r="H11" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="I11" s="8" t="n">
-        <f aca="false">G11-H11</f>
+      <c r="I11" s="10" t="n">
         <v>26</v>
       </c>
     </row>
@@ -839,8 +857,7 @@
       <c r="H12" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="I12" s="8" t="n">
-        <f aca="false">G12-H12</f>
+      <c r="I12" s="10" t="n">
         <v>26</v>
       </c>
     </row>
@@ -864,8 +881,7 @@
       <c r="H13" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="I13" s="8" t="n">
-        <f aca="false">G13-H13</f>
+      <c r="I13" s="10" t="n">
         <v>26</v>
       </c>
     </row>
@@ -889,8 +905,7 @@
       <c r="H14" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="I14" s="8" t="n">
-        <f aca="false">G14-H14</f>
+      <c r="I14" s="10" t="n">
         <v>50</v>
       </c>
     </row>
@@ -916,8 +931,7 @@
       <c r="H15" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="I15" s="8" t="n">
-        <f aca="false">G15-H15</f>
+      <c r="I15" s="10" t="n">
         <v>86</v>
       </c>
     </row>
@@ -941,31 +955,31 @@
       <c r="H16" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="I16" s="8" t="n">
-        <f aca="false">G16-H16</f>
+      <c r="I16" s="10" t="n">
         <v>52</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11" t="n">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12" t="n">
         <v>560</v>
       </c>
       <c r="G17" s="8" t="n">
         <f aca="false">SUM(C17:F17)</f>
         <v>560</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="8" t="n">
-        <f aca="false">G17-H17</f>
+      <c r="H17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10" t="n">
         <v>560</v>
       </c>
     </row>
@@ -976,28 +990,27 @@
       <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11" t="n">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="8" t="n">
         <f aca="false">SUM(C18:F18)</f>
         <v>80</v>
       </c>
-      <c r="H18" s="8" t="n">
+      <c r="H18" s="13" t="n">
         <v>70</v>
       </c>
-      <c r="I18" s="8" t="n">
-        <f aca="false">G18-H18</f>
+      <c r="I18" s="10" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -1020,13 +1033,12 @@
       <c r="H19" s="9" t="n">
         <v>360</v>
       </c>
-      <c r="I19" s="8" t="n">
-        <f aca="false">G19-H19</f>
+      <c r="I19" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1049,13 +1061,12 @@
       <c r="H20" s="9" t="n">
         <v>360</v>
       </c>
-      <c r="I20" s="8" t="n">
-        <f aca="false">G20-H20</f>
+      <c r="I20" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -1075,14 +1086,15 @@
         <f aca="false">SUM(C21:F21)</f>
         <v>190</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="8" t="n">
-        <f aca="false">G21-H21</f>
+      <c r="H21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10" t="n">
         <v>190</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1104,23 +1116,24 @@
         <f aca="false">SUM(C22:F22)</f>
         <v>248</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="8" t="n">
-        <f aca="false">G22-H22</f>
+      <c r="H22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10" t="n">
         <v>248</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11" t="n">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12" t="n">
         <v>130</v>
       </c>
       <c r="G23" s="8" t="n">
@@ -1130,58 +1143,59 @@
       <c r="H23" s="9" t="n">
         <v>57</v>
       </c>
-      <c r="I23" s="8" t="n">
-        <f aca="false">G23-H23</f>
+      <c r="I23" s="10" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="8" t="n">
-        <f aca="false">G24-H24</f>
+      <c r="H24" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I24" s="10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="8" t="n">
-        <f aca="false">G25-H25</f>
+      <c r="H25" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I25" s="10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11" t="n">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="n">
         <v>200</v>
       </c>
       <c r="G26" s="8" t="n">
@@ -1191,105 +1205,77 @@
       <c r="H26" s="9" t="n">
         <v>92</v>
       </c>
-      <c r="I26" s="8" t="n">
-        <f aca="false">G26-H26</f>
+      <c r="I26" s="10" t="n">
         <v>108</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11" t="n">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12" t="n">
         <v>240</v>
       </c>
       <c r="G27" s="8" t="n">
         <f aca="false">SUM(C27:F27)</f>
         <v>240</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="8" t="n">
-        <f aca="false">G27-H27</f>
+      <c r="H27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="8" t="n">
-        <f aca="false">G28-H28</f>
-        <v>0</v>
-      </c>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="8" t="n">
-        <f aca="false">G29-H29</f>
-        <v>0</v>
-      </c>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="8" t="n">
-        <f aca="false">G30-H30</f>
-        <v>0</v>
-      </c>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="8" t="n">
-        <f aca="false">G31-H31</f>
-        <v>0</v>
-      </c>
+      <c r="I31" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="1">
